--- a/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-form-merit9-cs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-form-merit9-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationFormMERIT9_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationFormMERIT9_CS</t>
   </si>
   <si>
     <t>Version</t>
@@ -102,7 +102,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationFormMERIT9_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-form-merit9-cs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-form-merit9-cs.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-form-merit9-cs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/CodeSystem-jp-medication-form-merit9-cs.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>
